--- a/data/file/01-四川在职人员导入模板.xlsx
+++ b/data/file/01-四川在职人员导入模板.xlsx
@@ -243,7 +243,7 @@
     <t>高中及同等学历</t>
   </si>
   <si>
-    <t>00008644000000000000342812</t>
+    <t>00008644000000000000342105</t>
   </si>
   <si>
     <t>钟离仁</t>
@@ -692,8 +692,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1682,13 +1682,13 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1714,14 +1714,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4380952380952" defaultRowHeight="12"/>
@@ -3526,9 +3526,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25">
       <formula1>Sheet1!$A$1:$A$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 I19 I20 I21 I22 I23 I24 I25 I16:I17">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C6:C15 G6:I15">
       <formula1>"男,女"</formula1>
     </dataValidation>
@@ -3536,19 +3533,22 @@
       <formula1>18264</formula1>
       <formula2>54789</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D16:D25">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D16:D25">
-      <formula1>"身份证,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q10 Q11:Q13 Q14:Q18 Q19:Q25">
+      <formula1>"个险营销,团险,银保,电销,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 I19 I20 I21 I22 I23 I24 I25 I16:I17">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P11:P13 P14:P18 P19:P25">
       <formula1>18264</formula1>
       <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q10 Q11:Q13 Q14:Q18 Q19:Q25">
-      <formula1>"个险营销,团险,银保,电销,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R10 R11:R13 R14:R18 R19:R25">
       <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>

--- a/data/file/01-四川在职人员导入模板.xlsx
+++ b/data/file/01-四川在职人员导入模板.xlsx
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4380952380952" defaultRowHeight="12"/>
@@ -2358,7 +2358,7 @@
       <c r="A7" s="39">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="40"/>
@@ -3520,6 +3520,9 @@
     <mergeCell ref="A27:R29"/>
   </mergeCells>
   <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q10 Q11:Q13 Q14:Q18 Q19:Q25">
+      <formula1>"个险营销,团险,银保,电销,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
       <formula1>Sheet1!$B$1:$B$10</formula1>
     </dataValidation>
@@ -3533,25 +3536,22 @@
       <formula1>18264</formula1>
       <formula2>54789</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D16:D25">
-      <formula1>"身份证,其他"</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q10 Q11:Q13 Q14:Q18 Q19:Q25">
-      <formula1>"个险营销,团险,银保,电销,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D16:D25">
+      <formula1>"身份证,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 I19 I20 I21 I22 I23 I24 I25 I16:I17">
       <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R10 R11:R13 R14:R18 R19:R25">
+      <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>
+    </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P10 P11:P13 P14:P18 P19:P25">
       <formula1>18264</formula1>
       <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R10 R11:R13 R14:R18 R19:R25">
-      <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
